--- a/Datenbanken UML.xlsx
+++ b/Datenbanken UML.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Account</t>
   </si>
@@ -65,15 +65,9 @@
     <t>Medien</t>
   </si>
   <si>
-    <t>&gt; Medium.ID</t>
-  </si>
-  <si>
     <t>Kontakte</t>
   </si>
   <si>
-    <t>&gt;Account.ID</t>
-  </si>
-  <si>
     <t>Medien und Kontakte mit Kommata getrennt</t>
   </si>
   <si>
@@ -84,13 +78,34 @@
   </si>
   <si>
     <t>1. Medium erstellen, dann zu Account hinzufügen</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Nutzermedien</t>
+  </si>
+  <si>
+    <t>&gt; Medien.ID</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>&gt; Nutzermedien.ID</t>
+  </si>
+  <si>
+    <t>Kursive Felder können leer sein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +121,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,32 +154,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -237,32 +234,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,146 +539,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
